--- a/2024 Game Day Info/Week 8_ ATL @ MKE (Sat)/Game Day Packet ATL at MKE.xlsx
+++ b/2024 Game Day Info/Week 8_ ATL @ MKE (Sat)/Game Day Packet ATL at MKE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="474">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -140,6 +140,9 @@
     <t>Announcement Script (If Applicable)</t>
   </si>
   <si>
+    <t>Monarchs Script 2024_05_25.docx</t>
+  </si>
+  <si>
     <t>Game Day Information</t>
   </si>
   <si>
@@ -182,7 +185,7 @@
     <t>Field Type</t>
   </si>
   <si>
-    <t>Grass</t>
+    <t>Turf</t>
   </si>
   <si>
     <t>Locker Rooms?</t>
@@ -382,6 +385,9 @@
     <t>TEAM</t>
   </si>
   <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -451,6 +457,685 @@
     <t>Fun Facts</t>
   </si>
   <si>
+    <t>Donna Johnston</t>
+  </si>
+  <si>
+    <t>She/Her</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adel, Iowa </t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>NOISE</t>
+  </si>
+  <si>
+    <t>Senior IT Manager</t>
+  </si>
+  <si>
+    <t>NOISE(2021-2023), Monarchs, Heist(2018) Dragn (PP, 2018), Bird(2017,2019)
+Coaching: Madison mixed YCC, MTU Superior Ma’s, MTU DiscoTech, MN superior u17 boys</t>
+  </si>
+  <si>
+    <t>College Sprinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start March 6th to today(April 3rd) I have consumed 11 bags of Act II popcorn. </t>
+  </si>
+  <si>
+    <t>Regina Barcio</t>
+  </si>
+  <si>
+    <t>Gina Barcio</t>
+  </si>
+  <si>
+    <t>Gee-nah</t>
+  </si>
+  <si>
+    <t>She/her</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Madison Heist</t>
+  </si>
+  <si>
+    <t>Healthcare IT</t>
+  </si>
+  <si>
+    <t>Playing for 8 years on club teams in Houston/madison, college with Rice University Torque 2016-2020</t>
+  </si>
+  <si>
+    <t>I started playing frisbee because my family plays! My brother (Aaron Barcio) and cousin (Xavier Fuzat) were AUDL Houston Havoc players last year. My dad (Bernie) has been playing for over 20 years along with my aunt, uncles, and cousins.</t>
+  </si>
+  <si>
+    <t>Rose Glinka</t>
+  </si>
+  <si>
+    <t>she/her</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>College -
+Case Western Reserve University Fighting Gobies; women's; Cleveland, OH; 2006-2010
+Club - 
+B.O.I.; mixed; Cleveland, OH; 2009 - 2010
+Mad Udderburn; mixed; Madison, WI; 2011
+Heist; women's; Madison, WI; 2012 - 2021
+NOISE; mixed; Madison, WI; 2022 - present
+International Club -
+YAKA; women's; Noisy-le-Sec, France; 2018 (3rd at Windmill; French National Champions; T17 at WUCC Worlds)
+League - 
+Coach for MUFA Beginner FMP league; 2013 - present
+Beach - 
+Rockford Beaches; women's; Rockford, IL; 2018 - 2019
+Masters - 
+Aged Cheddar; women's; Madison, WI; 2019 - 2021
+PUMAS; women's; Ames, IA; 2022 - 2023 including 2022 WMUCC worlds
+Grand Masters - 
+coming soon, I'm eligible in 2024 :)</t>
+  </si>
+  <si>
+    <t>I have had 5 knee surgeries :D</t>
+  </si>
+  <si>
+    <t>Sydney Stelzer</t>
+  </si>
+  <si>
+    <t>sid-knee stel-zer</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Chicago RAMP</t>
+  </si>
+  <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>RAMP 2023, 2022, Northwestern Claw 2016–2020</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>ManHua Zhu</t>
+  </si>
+  <si>
+    <t>man-wah  zoo</t>
+  </si>
+  <si>
+    <t>Fairfax, VA</t>
+  </si>
+  <si>
+    <t>Shiver (SE region women's club)</t>
+  </si>
+  <si>
+    <t>Postdoctoral scholar (neuroscience research)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-	Black Widows 2024 (int. team)
+-	Shiver 2023 (club women’s- SE region) 
+-	Day Shift 2023 (mixed masters, 11th at nationals)
+-	Malice in wonderland 2022 (club mixed- SE region)
+-	Shiver 2021
+</t>
+  </si>
+  <si>
+    <t>Ultimate is my first sport!</t>
+  </si>
+  <si>
+    <t>Chelsea Twohig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too-hig </t>
+  </si>
+  <si>
+    <t>2nd (practice player last year)</t>
+  </si>
+  <si>
+    <t>Campbellsport, WI</t>
+  </si>
+  <si>
+    <t>Wauwatosa, WI</t>
+  </si>
+  <si>
+    <t>Periodontist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Monarchs practice player 2023
+Medusa practice player 2023
+Molly Brown 2018, 2019
+Schwa 2016, 2017
+Team USA Mixed Masters Beach 2017
+Heist 2012
+CLX 2010, 2011
+University of Iowa Saucy Nancy 2010-13
+Fendisc, Santander, Spain 2009
+Corocotta, Santander, Spain 2008</t>
+  </si>
+  <si>
+    <t>Flag football 2014-15
+High school basketball and softball</t>
+  </si>
+  <si>
+    <t>I have a 3 year old named Margaret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney French </t>
+  </si>
+  <si>
+    <t>Rockford, IL</t>
+  </si>
+  <si>
+    <t>Madison, Wi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOISE, Bella Donna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPT student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd year of competitive frisbee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball, cross country, track </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there were pro/club goaltimate, I would leave ultimate and never look back. I dislike “fun fact” questions. </t>
+  </si>
+  <si>
+    <t>Erin Newman</t>
+  </si>
+  <si>
+    <t>Air-in</t>
+  </si>
+  <si>
+    <t>Roselle, IL</t>
+  </si>
+  <si>
+    <t>Oak Park, IL</t>
+  </si>
+  <si>
+    <t>Ex-Wisconsin Bella Donna, ex-Madison Heist, ex-Chicago Stripes</t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
+  </si>
+  <si>
+    <t>Started playing as a sophomore on my high school club team, played 4yrs on Wisconsin Bella Donna 2009-2013 (nationals 2010, 2012, 2013), founding member of Madison Heist and played 2012-2014 (nationals every year), founding member of Chicago Stripes mixed team and played for the entirety of the team’s existence 2019-2022, mostly cutter but can be a utility player</t>
+  </si>
+  <si>
+    <t>High school golf &amp; track (hurdles, triple jump)</t>
+  </si>
+  <si>
+    <t>Can spay a dog in 30 minutes; Cubs fan (left field bleachers are the best); Chose to play for the Monarchs so I could see my nephew who lives in Milwaukee on practice weekends</t>
+  </si>
+  <si>
+    <t>Caitlin Duffner</t>
+  </si>
+  <si>
+    <t>Like Caitlin Clark but duffner instead</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Frankfort IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiacgo IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemesis, Ohio State Fever </t>
+  </si>
+  <si>
+    <t>Physical Therapist</t>
+  </si>
+  <si>
+    <t>Played in the PUL since the first year (pride and then monarchs) mixed in Ohio (cocktails), women’s in Chicago (nemesis)</t>
+  </si>
+  <si>
+    <t>Badminton state qualifier 2012 😤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Caitlin Clark’s doppelgänger </t>
+  </si>
+  <si>
+    <t>Madison Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PJ or Maddi (PJ is frisbee nickname, I don't have a preference what you call me)</t>
+  </si>
+  <si>
+    <t>Fulton, NY</t>
+  </si>
+  <si>
+    <t>College: currently playing for Northwestern Claw (grad student), previously played for University of Rochester EZs (undergrad). Club: played for Chicago RAMP last season</t>
+  </si>
+  <si>
+    <t>Master's student in biomedical engineering at Northwestern University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College: Northwestern University Claw (2022 - present), University of Rochester EZs (2018 - 22)
+Club: Chicago RAMP (2023 season), Rochester Garbage Plates (2021 season) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Played soccer for 14 years, ran track and field for 6 years </t>
+  </si>
+  <si>
+    <t>Annie Shriver</t>
+  </si>
+  <si>
+    <t>Annie (like the movie/orphan), Shry-ver</t>
+  </si>
+  <si>
+    <t>Newton, MA</t>
+  </si>
+  <si>
+    <t>Vassar College Boxing Nuns 2015-2019, Boston Siege 2017-2021</t>
+  </si>
+  <si>
+    <t>6th Grade ELA teacher</t>
+  </si>
+  <si>
+    <t>Madison MUFAbots U20 Boys Head Coach 2022 and 2023, O'Keeffe Middle School coach 2023, coach (and founder) Gillespie Middle School ultimate frisbee club 2024 (fingers crossed - still need to get enough kids to sign up)</t>
+  </si>
+  <si>
+    <t>My younger brother is a senior and frisbee player at Tufts University. 
+In my time with Siege, I was teammates with Charlotte Doran (current Atlanta Soul player); Caroline Weinberg and Nikki "Tucker" Ross (current Philadelphia Surge players); Clara Stewart (current Austin Torch player); Chloe Rowse, Shirlee Wohl, and Duschia "Dbo" Bodet (current Portland Rising players), and Katharine Gilbert (current DC Shadow player).</t>
+  </si>
+  <si>
+    <t>Alex Ballinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bal-in-jer </t>
+  </si>
+  <si>
+    <t>Gurnee, IL</t>
+  </si>
+  <si>
+    <t>NoCo</t>
+  </si>
+  <si>
+    <t>Allie Mueting</t>
+  </si>
+  <si>
+    <t>Al-ee Mew-ting (like on the TV remote)</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, CA</t>
+  </si>
+  <si>
+    <t>Heist (Madison, WI), Chico State Chicas (Chico, CA 2016-2020)</t>
+  </si>
+  <si>
+    <t>4th Grade Teacher in Madison</t>
+  </si>
+  <si>
+    <t>College: Chico State Chicas, 2016-2020
+Club: Platypi (mixed), 2017-2018
+Club: Mad Udderburn (mixed), 2021 &amp; 2022 (captained)
+Club: Heist (women’s), 2023-2024</t>
+  </si>
+  <si>
+    <t>Chasing children (former kindergarten teacher), runner with Girls on the Run</t>
+  </si>
+  <si>
+    <t>I have a 12 year old yorkie poodle named Gracie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi Umhoefer </t>
+  </si>
+  <si>
+    <t>Hi-Dee Oom-Hay-fer</t>
+  </si>
+  <si>
+    <t>Pewaukee, WI</t>
+  </si>
+  <si>
+    <t>Heist</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Started in MUFA (Rec league), played Madison mixed team Mousetrap, now 2 years on Heist, also Aged Cheddar (masters team)</t>
+  </si>
+  <si>
+    <t>Competitive cheerleader in high school; currently disc golf when not playing ultimate</t>
+  </si>
+  <si>
+    <t>Anna Wozniak</t>
+  </si>
+  <si>
+    <t>Stoughton wi</t>
+  </si>
+  <si>
+    <t>Madison wi</t>
+  </si>
+  <si>
+    <t>Madison United (summer club team)</t>
+  </si>
+  <si>
+    <t>Atropa (UW Madison club team) Madison United (club team). Cutter/ d line</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>I have a beta fish.</t>
+  </si>
+  <si>
+    <t>Stef Bugasch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stef Bugasch </t>
+  </si>
+  <si>
+    <t>Steph BEW-gash</t>
+  </si>
+  <si>
+    <t>She/they</t>
+  </si>
+  <si>
+    <t>Eagan, MN</t>
+  </si>
+  <si>
+    <t>Bella Donna 2021-2022 (Grad School/College), Heist 2021-2024 (Captain 2024)</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coached volleyball for 10 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I actually like to raise (technical term is rear) monarch butterflies! I find them as eggs on milkweed and take care of them as caterpillars until they undergo metamorphosis and become butterflies!  </t>
+  </si>
+  <si>
+    <t>Mickela Heilicher</t>
+  </si>
+  <si>
+    <t>Mi-kella Hi-licher</t>
+  </si>
+  <si>
+    <t>They/she</t>
+  </si>
+  <si>
+    <t>Hopkins, MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology PhD student </t>
+  </si>
+  <si>
+    <t>HURT Hopkins High School, University of Puget Sound Clearcut, Small Batch, Heist</t>
+  </si>
+  <si>
+    <t>Ballet</t>
+  </si>
+  <si>
+    <t>I have over 20 pairs of jeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penelope wu </t>
+  </si>
+  <si>
+    <t>penny wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laguna Beach CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago IL </t>
+  </si>
+  <si>
+    <t>Chicago Ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT specialist </t>
+  </si>
+  <si>
+    <t>head coach northwestern university ultimate
+chicago nemesis, san diego superbloom, columbus pride</t>
+  </si>
+  <si>
+    <t>can't throw a flick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erynn Schroeder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air- in Shray-der </t>
+  </si>
+  <si>
+    <t>They them</t>
+  </si>
+  <si>
+    <t>2nd (but with Soul in 2023)</t>
+  </si>
+  <si>
+    <t>Plymouth MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wauwatosa </t>
+  </si>
+  <si>
+    <t>Heist (2021, 2024 hopeful), Tabby Rosa (2022, 2023), college: St Ben’s (DIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation Design Engineer </t>
+  </si>
+  <si>
+    <t>Atlanta soul 2019, 2023. US women’s national team 2020 (cancelled). U23 women’s national team in 2015, all star tour 2015, u19 women’s national team 2012. Rainbow Brigade (elite queer fris) 2024. Probably forgetting many.
+Coaching: Marquette moxie (current), uw Madison Bella Donna (2020, 2021), college of Charleston (2016-2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varsity swimming and xc skiing in hs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have moved every year for the past 13 years (cities in the last 6 years include Minneapolis, Charleston, Jacksonville, Madison, Orlando, Wauwatosa). Ultiworld called me a wandering Ronan. Probs settling in the Midwest now (shrug). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mia Wieben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mee-ah Veeben </t>
+  </si>
+  <si>
+    <t>She/hers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochemist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bella Donna in college, Heist for club, YCC in high school </t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some hobbies are photography and embroidery </t>
+  </si>
+  <si>
+    <t>Rachel Hildebrand</t>
+  </si>
+  <si>
+    <t>Hill- duh - brand</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>UChicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just finished my PhD!  And now recovering :) </t>
+  </si>
+  <si>
+    <t>Heist (2019, 2021-2024, captain 2023-now), coached fauxdags in 2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soccer and volleyball </t>
+  </si>
+  <si>
+    <t>Wrote an op-ed about Harry Potter in two different pen colors as a kid (age 7 or 8?) my mom sent it in and the published it in the state journal</t>
+  </si>
+  <si>
+    <t>Jacqueline Jarik</t>
+  </si>
+  <si>
+    <t>can use jacqueline, most people use JJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jAIR-ick </t>
+  </si>
+  <si>
+    <t>chicago, il</t>
+  </si>
+  <si>
+    <t>chicago nemesis</t>
+  </si>
+  <si>
+    <t>publicity manager at an independent book publisher</t>
+  </si>
+  <si>
+    <t>university of michigan flywheel (2010-2014); chicago nemesis (2013-present); WUGC team USA tryout invitee (2020); U-23 team USA tryout invitee (2013)</t>
+  </si>
+  <si>
+    <t>basketball (4th grade-12th grade); track &amp; field (triple jump (conference and sectional champion; illinois state qualifier); long jump, high jump; 4x200m relay; 100m hurdles; 300m hurdles)</t>
+  </si>
+  <si>
+    <t>willing to bet i have the longest duolingo streak in the league (1,490 days as of 4/2/24, sponsor me, duolingo!!!); at one point i could list all 144 episodes of "buffy the vampire slayer" by name in order; ate 53 soup dumplings in 36 hours in shanghai in a soup-dumpling-eating contest with some friends (anna thorn ate 10).</t>
+  </si>
+  <si>
+    <t>Austin Prucha</t>
+  </si>
+  <si>
+    <t>PRU - KA</t>
+  </si>
+  <si>
+    <t>Noise, PHX, Scandal, Heist</t>
+  </si>
+  <si>
+    <t>I've never lived outside Wisconsin.</t>
+  </si>
+  <si>
+    <t>Claire Kelley</t>
+  </si>
+  <si>
+    <t>KLARE KEHL-lee</t>
+  </si>
+  <si>
+    <t>Waukesha, WI</t>
+  </si>
+  <si>
+    <t>NOISE (2009-2016) &amp; Northern Comfort (NoCo) 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Manager at Geis Building Products (Garage Door Company) </t>
+  </si>
+  <si>
+    <t>College: Marquette Moxie (2005-2009)
+Club: NOISE (2009-2016), WUCC with Disco Sour (2018), NoCo (2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High School: Soccer, Swim &amp; Cross Country Skiing* (*It didn't snow enough the one season I participated, so we didn't have any races and we went running for practice)
+College: Marquette Club Swim Team </t>
+  </si>
+  <si>
+    <t>I was in the children's choir for the Broadway production of "Joseph and the Amazing Technicolor Dreamcoat" when it came to Milwaukee's Riverside Theater in 1996. I still remember all 29 colors of the coat from the musical.</t>
+  </si>
+  <si>
+    <t>Eileen Bequette</t>
+  </si>
+  <si>
+    <t>Eye-leen Beck- it</t>
+  </si>
+  <si>
+    <t>Albany, NY</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer</t>
+  </si>
+  <si>
+    <t>University of Rochester EZs, Madison Heist</t>
+  </si>
+  <si>
+    <t>NCAA D3 Track and Field, various rec sports/ pick up</t>
+  </si>
+  <si>
+    <t>Went for a 2 hour bike ride and counted over 100 Honda CR-Vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dana Demmert </t>
+  </si>
+  <si>
+    <t>(DAY-nuh) (DEMM-urt)</t>
+  </si>
+  <si>
+    <t>Arlington Heights, IL</t>
+  </si>
+  <si>
+    <t>Iowa City, IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Nemesis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Analyst for Mental Health at the Iowa City VA Hospital </t>
+  </si>
+  <si>
+    <t>University of Iowa Saucy Nancy (women's college): Player from 2011-2013, Coach from 2018-present
+Iowa City Panic (mixed club) - 2012-2021
+Chicago Stripes (mixed club) - 2022
+Chicago Nemesis (women's club) - 2023-present
+Madison Aged Cheddar (women's masters) - 2021-present
+1st place at Beach Nationals with Rockford Beaches 2018-2019
+Tournament Director for Old Capitol Open (college tournament in Cedar Rapids, IA) in 2019</t>
+  </si>
+  <si>
+    <t>Played competitive volleyball for many years (6th grade through high school varsity + played for multiple club teams), also played varsity water polo in high school. Trained long distance running for fun for several years (multiple half marathons and 10k's) but have put that on the back burner to focus on ultimate full time. Oh and I guess I'm pretty decent at disc golf.</t>
+  </si>
+  <si>
+    <t>I have really long fingers and was the only player on my water polo team who could palm the ball, my high score in bowling is 221, and I went to high school with Jimmy Garoppolo (NFL quarterback).</t>
+  </si>
+  <si>
     <t>Away Team Game Day Information</t>
   </si>
   <si>
@@ -466,9 +1151,18 @@
     <t>Method of Transport</t>
   </si>
   <si>
+    <t>Plane</t>
+  </si>
+  <si>
     <t>PERSONNEL</t>
   </si>
   <si>
+    <t>Lily Ponitz</t>
+  </si>
+  <si>
+    <t>941-321-1489</t>
+  </si>
+  <si>
     <t>Total Number of Players Attending</t>
   </si>
   <si>
@@ -479,6 +1173,9 @@
   </si>
   <si>
     <t>Completed by away team. Due Wednesday prior to match.</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
   </si>
   <si>
     <r>
@@ -504,6 +1201,440 @@
       <t xml:space="preserve"> below in ascending numerical jersey number order (sort by column E).</t>
     </r>
   </si>
+  <si>
+    <t>Quincy Booth</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Athens GA</t>
+  </si>
+  <si>
+    <t>UGA Athena</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>High School: Decatur High School, All of Atl YCC
+College: UGA Athena (Captain)
+Club: Atlanta Ozone
+National: WJUC U20</t>
+  </si>
+  <si>
+    <t>I have a pet snake</t>
+  </si>
+  <si>
+    <t>Alex "Galaxy" Krueger</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex Krueger - Alex (Galaxy) CREW-grr</t>
+  </si>
+  <si>
+    <t>she/her/hers</t>
+  </si>
+  <si>
+    <t>Decatur, GA</t>
+  </si>
+  <si>
+    <t>middle school teacher</t>
+  </si>
+  <si>
+    <t>WUL: Los Angeles Astra
+Club: Los Angeles Rampage, Chicago Nemesis, Chicago Dish; 
+College: University of Chicago; International Teams: Bogotá Bamboo, Kisumu Frisbee Club (Kenya); 
+Masters: Hot Flash</t>
+  </si>
+  <si>
+    <t>- I have a one year old baby and am excited to be able to continue playing at the Pro level as an ultimate Mom.
+- I play the violin, and I played an electric violin in a rock orchestra in high school.</t>
+  </si>
+  <si>
+    <t>Megan Jarriel</t>
+  </si>
+  <si>
+    <t>Megan Jarrel (like barrel with a J)</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Electrical Engineer</t>
+  </si>
+  <si>
+    <t>College: Purdue
+Club: Indy Rogue, Outbreak, Roma 
+Coaching: Midtown High School</t>
+  </si>
+  <si>
+    <t>I love hiking/backpacking and have a dog named Peanut</t>
+  </si>
+  <si>
+    <t>Natalie Wilson</t>
+  </si>
+  <si>
+    <t>Willy</t>
+  </si>
+  <si>
+    <t>Natalie (Willy) Wilson - I don’t care if they say Natalie or Willy but I like when they say Willy Wilson bc it sounds so silly</t>
+  </si>
+  <si>
+    <t>Tallahassee, FL</t>
+  </si>
+  <si>
+    <t>Transportation Planner</t>
+  </si>
+  <si>
+    <t>College: FSU college team (SLUT)
+Club: FL Weird, FL Tabby Rosa
+Coaching: FSU college team (SLUT)
+Leader in Tallahassee Ultimate League</t>
+  </si>
+  <si>
+    <t>I grew up in ATL, I can outrun my border collie</t>
+  </si>
+  <si>
+    <t>Dani Ortiz</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Dani Orteez</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Club: Malafama (2019-2022), Malaki (2017-2019), Slash (2019-2023), Roma Ultima (2023)
+National: Mexico national team (2020-today)
+Malafama captain 2022, 2023. Slash captain 2022</t>
+  </si>
+  <si>
+    <t>I am allergic to coffee, I don´t like any chocolate things but I like eating chocolate</t>
+  </si>
+  <si>
+    <t>Fiona Cashin</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>FEE-O-NA</t>
+  </si>
+  <si>
+    <t>Athens, GA</t>
+  </si>
+  <si>
+    <t>College: UGA Athena</t>
+  </si>
+  <si>
+    <t>Student at UGA</t>
+  </si>
+  <si>
+    <t>College: UGA Athena (Captain)
+Club: Murmur, Ozone (Captain)</t>
+  </si>
+  <si>
+    <t>I have a pet snake, I always win the Soul handstand contests</t>
+  </si>
+  <si>
+    <t>Mia Griner</t>
+  </si>
+  <si>
+    <t>M-ee-u Gr-EYE-ner (?)</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Kennesaw, GA</t>
+  </si>
+  <si>
+    <t>East Coast/Canada Active Account Manager - MYLAPS Sports Technology</t>
+  </si>
+  <si>
+    <t>College: UCF Sirens, KSU Strix
+Club: Weird, Roma
+Coaching: Southeast Women's Regional Coordinator for USAU Club</t>
+  </si>
+  <si>
+    <t>Referee for many sports, primarily flag football, soccer, and UFA (AUDL).</t>
+  </si>
+  <si>
+    <t>Emma Jaschke</t>
+  </si>
+  <si>
+    <t>Jaschke</t>
+  </si>
+  <si>
+    <t>Emma JASS-kee</t>
+  </si>
+  <si>
+    <t>she/they</t>
+  </si>
+  <si>
+    <t>Saint Paul, MN</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN</t>
+  </si>
+  <si>
+    <t>public school teacher (high school math)</t>
+  </si>
+  <si>
+    <t>College: University of Minnesota Women's Team (Matrix)
+WUL: AZ Sidewinders
+Club: MoonPi</t>
+  </si>
+  <si>
+    <t>Hannah Abraham</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Hannah Abraham (like the President)</t>
+  </si>
+  <si>
+    <t>Simpsonville, SC</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>Medical Device Project Manager</t>
+  </si>
+  <si>
+    <t>College: Clemson University
+Club: Swamp Rabbit, BRUH, Possum, Verdant (Captain)
+Masters: Old Money
+Women's Coordinator for Greenville Ultimate Community, USAU East Coast Sectionals Coordinator</t>
+  </si>
+  <si>
+    <t>1. Related to Johnny Cash 2. I play the flute</t>
+  </si>
+  <si>
+    <t>Lindsi Allman</t>
+  </si>
+  <si>
+    <t>Lindsi</t>
+  </si>
+  <si>
+    <t>Lind-z all-man</t>
+  </si>
+  <si>
+    <t>She they</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>phd Student in Geology at FSU</t>
+  </si>
+  <si>
+    <t>College: Florida State SLUT
+Club: Tabby Rosa, Weird
+Coaching: Florida State SLUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I once grew a giant cabbage when I was 8 and it was bigger than me.
+My family is from Sopchoppy Florida, home of the Worm Gruntin Festival </t>
+  </si>
+  <si>
+    <t>Evelina Pierce</t>
+  </si>
+  <si>
+    <t>Elle Mayer</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Eh-lee MY-er</t>
+  </si>
+  <si>
+    <t>High School: Brookwood HS
+College: UGA Athena
+Club: Athens Murmur</t>
+  </si>
+  <si>
+    <t>Sam Li</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Suh-man-tha LEE</t>
+  </si>
+  <si>
+    <t>High School: YCC NYC Skyscrapers
+College: Emory Luna
+Club: Atlanta Ozone, Atlanta Flock</t>
+  </si>
+  <si>
+    <t>Morgan Lally</t>
+  </si>
+  <si>
+    <t>Morgan Lally (l AE - l ee)</t>
+  </si>
+  <si>
+    <t>Asheville, NC</t>
+  </si>
+  <si>
+    <t>Director of NCAA Compliance at Georgia Tech</t>
+  </si>
+  <si>
+    <t>College: Berry College
+Club: Cahoots, Roma</t>
+  </si>
+  <si>
+    <t>I have a twin sister. I have been to 2 women's world cups.</t>
+  </si>
+  <si>
+    <t>Therese Doebler</t>
+  </si>
+  <si>
+    <t>Tur-reese DOUGH-blur</t>
+  </si>
+  <si>
+    <t>She/ Her</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+  <si>
+    <t>Director of Education</t>
+  </si>
+  <si>
+    <t>College: USF womens
+Club: Team Seven, Jolly Roger, Mutiny, Weird, Crown, M’Kay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therese runs on Dunkin
+I’ve never met a macaroni and cheese I didn't like. </t>
+  </si>
+  <si>
+    <t>Martha Wilber</t>
+  </si>
+  <si>
+    <t>Server at Homegrown GA, student at Georgia State</t>
+  </si>
+  <si>
+    <t>College: UGA Athena
+Club: Athens Murmur, Atlanta Ozone</t>
+  </si>
+  <si>
+    <t>1) Hiked the entire Appalachian Trail
+2) I play the cello</t>
+  </si>
+  <si>
+    <t>Jordan Harn</t>
+  </si>
+  <si>
+    <t>Jordan Harn - Jordan HAARN (sounds like hard with an N)</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Corporate finance</t>
+  </si>
+  <si>
+    <t>College: Texas A&amp;M University
+Club: Flagstaff Ultimate Club, Arizona Lawless, Instant Karma, Balloon
+WUL: Arizona Sidewinders
+Coaching: Grand Canyon University (Open) - 2022; Grand Canyon University (Women’s) - 2023-2024</t>
+  </si>
+  <si>
+    <t>I used to compete against Simone Biles as a kid;</t>
+  </si>
+  <si>
+    <t>Lilli Popovich</t>
+  </si>
+  <si>
+    <t>Lilli</t>
+  </si>
+  <si>
+    <t>Lilli PAW-po-vich</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Club: Steamboat (Cincinnati); Too Much Fun (Asheville)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  When I lived in Belize, I participated in a greased pig competition. Within 8 seconds, I caught it and carried it out the gate. My prize- keeping the 60 pound pig. 
+2. I threw discus in college for the University of Louisville </t>
+  </si>
+  <si>
+    <t>Liv Ford</t>
+  </si>
+  <si>
+    <t>Liv</t>
+  </si>
+  <si>
+    <t>College: Elon University Wild Rumpus
+Club: Taco Truck (women's), Crown Peach (mixed), Ozone (women's)
+Coaching: Chamblee High School (Open JV), cATLanta (YCC U20 Girls)</t>
+  </si>
+  <si>
+    <t>Trystan grzyll</t>
+  </si>
+  <si>
+    <t>Trystan</t>
+  </si>
+  <si>
+    <t>Tristen Griz-ELLE</t>
+  </si>
+  <si>
+    <t>Ophthalmic technician/research coordinator</t>
+  </si>
+  <si>
+    <t>Club: Mutiny, weird, mkay
+Coaching: USF womens</t>
+  </si>
+  <si>
+    <t>I’m a black belt, I would do anything for a fresh baked chocolate chip cookie</t>
+  </si>
+  <si>
+    <t>Sarah Kingsley-Hart</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Sarah Kingsley-Hart (SAIR-ah King-SLEE Hart)</t>
+  </si>
+  <si>
+    <t>Atlanta, Ga</t>
+  </si>
+  <si>
+    <t>Grad Student</t>
+  </si>
+  <si>
+    <t>College: Wake Forest Ruckus
+Club: Carolina Reign, Outbreak, Mkay
+Coaching: Midtown High School JV Girls
+USAU Southeast Womens Section Coordinator</t>
+  </si>
+  <si>
+    <t>I have dog named Millee and I played the saxophone in high school and college</t>
+  </si>
+  <si>
+    <t>Coaches</t>
+  </si>
+  <si>
+    <t>Jac Clark</t>
+  </si>
+  <si>
+    <t>Alec Chosewood</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +1644,7 @@
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -573,6 +1704,13 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -657,7 +1795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <bottom style="thin">
@@ -686,11 +1824,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -737,6 +1905,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -748,7 +1919,7 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -760,10 +1931,10 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -781,53 +1952,53 @@
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -836,34 +2007,111 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +2126,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7038975" cy="6467475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,7 +2534,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.38"/>
+    <col customWidth="1" min="3" max="3" width="41.0"/>
     <col customWidth="1" min="4" max="4" width="15.5"/>
     <col customWidth="1" min="5" max="5" width="50.25"/>
   </cols>
@@ -1298,7 +2575,9 @@
     <row r="4">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
@@ -8295,8 +9574,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E1"/>
+    <hyperlink r:id="rId2" ref="C4"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8317,7 +9597,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -8326,406 +9606,406 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17">
+      <c r="A3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18">
         <v>45437.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="18">
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19">
         <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="5" ht="5.25" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="11" ht="5.25" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>43</v>
+      <c r="A12" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="25" t="s">
         <v>47</v>
       </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="25" t="s">
         <v>49</v>
       </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="5.25" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" ht="5.25" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="25"/>
+      <c r="B31" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" ht="5.25" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="27"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="32"/>
+    </row>
+    <row r="42" ht="5.25" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="32"/>
+    </row>
+    <row r="47" ht="5.25" customHeight="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c r="A49" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" ht="5.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26" ht="5.25" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="24"/>
-      <c r="B31" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="26"/>
-    </row>
-    <row r="34" ht="5.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="23" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="26"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="31"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="26"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="31"/>
-    </row>
-    <row r="42" ht="5.25" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="31"/>
-    </row>
-    <row r="47" ht="5.25" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="22" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="52" ht="5.25" customHeight="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53">
-      <c r="A53" s="23" t="s">
-        <v>87</v>
+      <c r="A53" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="26"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55">
-      <c r="A55" s="26"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
     </row>
     <row r="56">
-      <c r="A56" s="26"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8774,144 +10054,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="41"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>40</v>
+      <c r="A5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>40</v>
+      <c r="A6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="B8" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="41">
         <f>16082516100</f>
         <v>16082516100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10">
-      <c r="A10" s="42"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40">
+      <c r="A10" s="43"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41">
         <f>16082516100</f>
         <v>16082516100</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="40"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="41"/>
     </row>
     <row r="12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>97</v>
+      <c r="A14" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8949,543 +10229,1200 @@
     <col customWidth="1" min="10" max="10" width="13.63"/>
     <col customWidth="1" min="11" max="11" width="45.63"/>
     <col customWidth="1" min="12" max="12" width="20.5"/>
-    <col customWidth="1" min="13" max="13" width="44.88"/>
+    <col customWidth="1" min="13" max="14" width="44.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="47"/>
+        <v>100</v>
+      </c>
+      <c r="C2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="50"/>
+      <c r="A4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="51">
+        <v>45437.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
-        <v>101</v>
+      <c r="A6" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
-        <v>102</v>
+      <c r="A7" s="50" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
-        <v>103</v>
+      <c r="A8" s="50" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>108</v>
       </c>
+      <c r="D10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>110</v>
+      </c>
       <c r="F10" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="52" t="s">
         <v>111</v>
       </c>
+      <c r="G10" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="I10" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="52" t="s">
         <v>114</v>
       </c>
+      <c r="J10" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="L10" s="54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>116</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N10" s="55"/>
     </row>
     <row r="11">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="A11" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="62"/>
     </row>
     <row r="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="A12" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="63">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="62"/>
+      <c r="M12" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="A13" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="A14" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="A15" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="60">
+        <v>8.0</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" s="62"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="A16" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="63">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="37"/>
     </row>
     <row r="17">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="A17" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="60">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="N17" s="37"/>
     </row>
     <row r="18">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="A18" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="60">
+        <v>13.0</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="A19" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="60">
+        <v>17.0</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="37"/>
     </row>
     <row r="20">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="A20" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="63">
+        <v>20.0</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="A21" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="67">
+        <v>21.0</v>
+      </c>
+      <c r="F21" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="62"/>
+      <c r="M21" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="N21" s="37"/>
     </row>
     <row r="22">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="A22" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="60">
+        <v>22.0</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
+      <c r="A23" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="63">
+        <v>23.0</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="N23" s="37"/>
     </row>
     <row r="24">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="A24" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="60">
+        <v>24.0</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="62"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="A25" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="60">
+        <v>25.0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="N25" s="37"/>
     </row>
     <row r="26">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="A26" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="60">
+        <v>27.0</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" s="37"/>
     </row>
     <row r="27">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="A27" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="63">
+        <v>32.0</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="N27" s="41"/>
     </row>
     <row r="28">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="A28" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="60">
+        <v>47.0</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" s="62"/>
+      <c r="M28" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="N28" s="62"/>
     </row>
     <row r="29">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="A29" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="60">
+        <v>52.0</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N29" s="37"/>
     </row>
     <row r="30">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="A30" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="60">
+        <v>55.0</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="N30" s="37"/>
     </row>
     <row r="31">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
+      <c r="A31" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="63">
+        <v>64.0</v>
+      </c>
+      <c r="F31" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="N31" s="37"/>
     </row>
     <row r="32">
-      <c r="A32" s="59"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="A32" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="60">
+        <v>72.0</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="N32" s="37"/>
     </row>
     <row r="33">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="A33" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="73">
+        <v>87.0</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="61"/>
+      <c r="H33" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="N33" s="37"/>
     </row>
     <row r="34">
-      <c r="A34" s="59"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="A34" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="63">
+        <v>88.0</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="N34" s="37"/>
     </row>
     <row r="35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="A35" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="60">
+        <v>97.0</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N35" s="37"/>
     </row>
     <row r="36">
-      <c r="A36" s="59"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="A36" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="63">
+        <v>99.0</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="N36" s="37"/>
     </row>
     <row r="37">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="78"/>
     </row>
     <row r="38">
-      <c r="A38" s="59"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="78"/>
     </row>
     <row r="39">
-      <c r="A39" s="59"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="78"/>
     </row>
     <row r="40">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="78"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="78"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="79"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9516,89 +11453,101 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="26"/>
+      <c r="A3" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.7708333333333334</v>
+      </c>
     </row>
     <row r="4" ht="5.25" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="7" ht="5.25" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>122</v>
+      <c r="A8" s="24" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="26"/>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="26"/>
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="26"/>
+      <c r="A11" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="23">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="23">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13" ht="5.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>87</v>
+      <c r="A14" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17">
-      <c r="A17" s="26"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9645,539 +11594,975 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="47"/>
+        <v>341</v>
+      </c>
+      <c r="C2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="50"/>
+      <c r="A4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="51">
+        <v>45437.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
-        <v>127</v>
+      <c r="A6" s="50" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
-        <v>102</v>
+      <c r="A7" s="50" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
-        <v>103</v>
+      <c r="A8" s="50" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="52" t="s">
+      <c r="A10" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="B10" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="C10" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="D10" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="E10" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="F10" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="G10" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="H10" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="I10" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="J10" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="K10" s="80" t="s">
         <v>116</v>
       </c>
+      <c r="L10" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="A11" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="L11" s="77"/>
+      <c r="M11" s="84" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="A12" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="84" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="A13" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="84">
+        <v>5.0</v>
+      </c>
+      <c r="F13" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="77"/>
+      <c r="M13" s="84" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="A14" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="F14" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="84" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="84" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="A15" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="84">
+        <v>8.0</v>
+      </c>
+      <c r="F15" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="77"/>
+      <c r="M15" s="84" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="A16" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="84">
+        <v>9.0</v>
+      </c>
+      <c r="F16" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" s="77"/>
+      <c r="M16" s="84" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="A17" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="84">
+        <v>10.0</v>
+      </c>
+      <c r="F17" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="I17" s="76"/>
+      <c r="J17" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="L17" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="M17" s="77"/>
     </row>
     <row r="18">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="A18" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="84">
+        <v>12.0</v>
+      </c>
+      <c r="F18" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>397</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="A19" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="84">
+        <v>13.0</v>
+      </c>
+      <c r="F19" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>404</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="J19" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="L19" s="77"/>
+      <c r="M19" s="84" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="A20" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" s="84">
+        <v>14.0</v>
+      </c>
+      <c r="F20" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="H20" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="I20" s="76"/>
+      <c r="J20" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="L20" s="77"/>
+      <c r="M20" s="84" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="A21" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="84">
+        <v>17.0</v>
+      </c>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="A22" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="84">
+        <v>19.0</v>
+      </c>
+      <c r="F22" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="84" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
+      <c r="A23" s="83" t="s">
+        <v>422</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="84">
+        <v>21.0</v>
+      </c>
+      <c r="F23" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="A24" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="84">
+        <v>26.0</v>
+      </c>
+      <c r="F24" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="K24" s="84" t="s">
+        <v>430</v>
+      </c>
+      <c r="L24" s="77"/>
+      <c r="M24" s="84" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="A25" s="83" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="E25" s="84">
+        <v>27.0</v>
+      </c>
+      <c r="F25" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="I25" s="76"/>
+      <c r="J25" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="K25" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="L25" s="77"/>
+      <c r="M25" s="84" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="A26" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="84">
+        <v>42.0</v>
+      </c>
+      <c r="F26" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="J26" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="K26" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="L26" s="77"/>
+      <c r="M26" s="84" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="A27" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="76"/>
+      <c r="C27" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="84">
+        <v>44.0</v>
+      </c>
+      <c r="F27" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>445</v>
+      </c>
+      <c r="I27" s="76"/>
+      <c r="J27" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="K27" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="L27" s="77"/>
+      <c r="M27" s="84" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="A28" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>450</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="84">
+        <v>51.0</v>
+      </c>
+      <c r="F28" s="84">
+        <v>11.0</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="I28" s="76"/>
+      <c r="J28" s="84" t="s">
+        <v>452</v>
+      </c>
+      <c r="K28" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="L28" s="77"/>
+      <c r="M28" s="84" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="A29" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>455</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="84">
+        <v>54.0</v>
+      </c>
+      <c r="F29" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="84" t="s">
+        <v>457</v>
+      </c>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="A30" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="84">
+        <v>55.0</v>
+      </c>
+      <c r="F30" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="H30" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="84" t="s">
+        <v>461</v>
+      </c>
+      <c r="K30" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" s="77"/>
+      <c r="M30" s="84" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
+      <c r="A31" s="83" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="84">
+        <v>75.0</v>
+      </c>
+      <c r="F31" s="84">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="I31" s="76"/>
+      <c r="J31" s="84" t="s">
+        <v>468</v>
+      </c>
+      <c r="K31" s="84" t="s">
+        <v>469</v>
+      </c>
+      <c r="L31" s="77"/>
+      <c r="M31" s="84" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="59"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="A33" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
     </row>
     <row r="34">
-      <c r="A34" s="59"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="A34" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="A35" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36">
-      <c r="A36" s="59"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38">
-      <c r="A38" s="59"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
     </row>
     <row r="39">
-      <c r="A39" s="59"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
